--- a/Labs/Lab7/Photoresistor Measurements.xlsx
+++ b/Labs/Lab7/Photoresistor Measurements.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,16 +714,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>791</v>
+        <v>843</v>
       </c>
       <c r="C14" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D14" s="3">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="E14" s="4">
-        <v>484</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -766,19 +766,19 @@
       </c>
       <c r="B17" s="1">
         <f>AVERAGE(B14:B16)</f>
-        <v>854.33333333333337</v>
+        <v>871.66666666666663</v>
       </c>
       <c r="C17" s="2">
         <f>AVERAGE(C14:C16)</f>
-        <v>696.66666666666663</v>
+        <v>695</v>
       </c>
       <c r="D17" s="3">
         <f>AVERAGE(D14:D16)</f>
-        <v>869.66666666666663</v>
+        <v>878.66666666666663</v>
       </c>
       <c r="E17" s="4">
         <f>AVERAGE(E14:E16)</f>
-        <v>576.33333333333337</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
